--- a/database/MASTER_DATA.xlsx
+++ b/database/MASTER_DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KIRI\Desktop\TRS_Inventory_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3B7281-30D2-4F06-822F-B3AF28BEFA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD97F75-C754-4BEE-98ED-CF5FA35C71F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{11DA08DB-686C-4BAB-B22B-9A0D116017CD}"/>
+    <workbookView xWindow="9945" yWindow="435" windowWidth="10545" windowHeight="10365" xr2:uid="{11DA08DB-686C-4BAB-B22B-9A0D116017CD}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER-DATA" sheetId="1" r:id="rId1"/>
@@ -480,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF8C85B-35E5-46AF-94C2-CF0C04B0C28D}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,14 +490,14 @@
     <col min="2" max="2" width="15.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="52" style="2" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="2" customWidth="1"/>
     <col min="6" max="7" width="11.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,10 +508,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>

--- a/database/MASTER_DATA.xlsx
+++ b/database/MASTER_DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KIRI\Desktop\TRS_Inventory_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD97F75-C754-4BEE-98ED-CF5FA35C71F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA55466-5A64-4173-838E-70F3B50C3406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9945" yWindow="435" windowWidth="10545" windowHeight="10365" xr2:uid="{11DA08DB-686C-4BAB-B22B-9A0D116017CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{11DA08DB-686C-4BAB-B22B-9A0D116017CD}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER-DATA" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>S_NO</t>
   </si>
@@ -478,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF8C85B-35E5-46AF-94C2-CF0C04B0C28D}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,13 +491,13 @@
     <col min="3" max="3" width="52" style="2" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" style="2" customWidth="1"/>
-    <col min="6" max="7" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" style="2" customWidth="1"/>
+    <col min="6" max="8" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,25 +514,28 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -546,7 +549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -560,7 +563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -574,7 +577,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
     </row>
   </sheetData>
